--- a/tests/data/seed-dataframes/user-seed-dataframes/gproteins.xlsx
+++ b/tests/data/seed-dataframes/user-seed-dataframes/gproteins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/programming/git-clones/topiary/tests/data/seed-dataframes/user-created-examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/programming/git-clones/topiary/tests/data/seed-dataframes/user-seed-dataframes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2866DF78-7C32-5940-B889-EA64C2241EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198AC1C1-4F59-9D49-912F-CBA43EAFFDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="seed-dataframe_TLR2" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>species</t>
   </si>
@@ -254,15 +254,12 @@
   </si>
   <si>
     <t>aliases</t>
-  </si>
-  <si>
-    <t>aliasesx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1114,22 +1111,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="130.83203125" customWidth="1"/>
-    <col min="5" max="5" width="255.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="182" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,205 +1138,166 @@
         <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="str">
-        <f>D2</f>
-        <v>elongation factor g; EF-G; far; fus; b3340; JW3302</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C10" si="0">D3</f>
-        <v>selenocysteyl-tRNA-specific translation elongation factor; selenocysteine-specific elongation factor; selB translation factor; selB; fdhA; b3590; JW3563</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>30S ribosomal subunit biogenesis factor LepA; elongation factor 4; EF-4; ribosomal back-translocase lepA; b2569, JW2553</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>peptide chain release factor RF3; RF-3; miaD; tos; b4375; JW5873</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">translation elongation factor Tu 1; elongation factor Tu 1; EF-Tu 1; bacteriophage Q beta RNA-directed RNA polymerase subunit III; P-43; b3339, JW3301 </v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>translation initiation factor IF-2beta'; translation initiation factor IF-2; infB; gicD; ssyG; b3168; JW3137</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>50S ribosomal subunit assembly factor BipA; GTP-binding protein BipA/TypA; Ribosome assembly factor BipA; Ribosome-dependent GTPase BipA; Tyrosine phosphorylated protein A; bipA; o591; yihK; b3871; JW5571</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>30S ribosomal subunit maturation GTPase Era; GTPase Era; GTP-binding protein Era; rbaA, sdgE; b2566; JW2550</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>50S ribosomal subunit stability factor; GTPase Der; Double era-like domain protein; GTP-binding protein EngA; der; yfgK; b2511; JW5403</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -1348,17 +1307,14 @@
       <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1368,17 +1324,14 @@
       <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1388,17 +1341,14 @@
       <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -1408,17 +1358,14 @@
       <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -1426,19 +1373,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1446,19 +1390,16 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1466,19 +1407,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1486,19 +1424,16 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1506,15 +1441,12 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>33</v>
       </c>
     </row>
